--- a/PD.xlsx
+++ b/PD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -20,10 +20,10 @@
     <t>mercredi</t>
   </si>
   <si>
-    <t>Innovation - C (KRTA9AD1)</t>
-  </si>
-  <si>
-    <t>KRTA9AD1</t>
+    <t>Innovation - C (KRTA9AD1/KUPT9BA2)</t>
+  </si>
+  <si>
+    <t>KRTA9AD1/KUPT9BA2</t>
   </si>
   <si>
     <t>PD</t>
@@ -32,25 +32,28 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
+    <t>Innovation - TD (KRTA9AD1/KUPT9BA2)</t>
+  </si>
+  <si>
+    <t>TYPE_TD</t>
+  </si>
+  <si>
     <t>13:30</t>
   </si>
   <si>
-    <t>Innovation - TD (KRTA9AD1)</t>
-  </si>
-  <si>
-    <t>TYPE_TD</t>
-  </si>
-  <si>
     <t>lundi</t>
   </si>
   <si>
-    <t>Innov (KRTA9AD1)</t>
+    <t>Innov (KRTA9AD1/KUPT9BA2)</t>
   </si>
   <si>
     <t>18:0</t>
@@ -103,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,121 +144,112 @@
       <c r="E3" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>45947.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>47.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>2</v>
+      <c r="A5" t="n" s="1">
+        <v>45982.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>47.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>45982.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>48.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>9</v>
+      <c r="A8" t="n" s="1">
+        <v>45987.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I8" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n" s="0">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n" s="0">
         <v>49.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="1">
+    <row r="11">
+      <c r="A11" t="n" s="1">
         <v>45992.0</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="B11" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I11" s="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
@@ -268,12 +262,14 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
         <v>10</v>
@@ -281,74 +277,103 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="1">
+      <c r="A13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="1">
         <v>45994.0</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B14" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n" s="0">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n" s="0">
         <v>51.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n" s="1">
+    <row r="17">
+      <c r="A17" t="n" s="1">
         <v>46008.0</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B17" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s" s="0">
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E17" t="n" s="0">
+      <c r="B18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I17" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I18" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
